--- a/Manual Testing (Rokomari.com)/TestCase_Rokomari.com.xlsx
+++ b/Manual Testing (Rokomari.com)/TestCase_Rokomari.com.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Testing\SQA Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Testing\Manual-Testing--Test-Cases-with-Scenarios--Mindmaps--Reports---Test-Metrics-\Manual Testing (Rokomari.com)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="380">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1346,6 +1346,9 @@
   </si>
   <si>
     <t>Md. Golam An Nihal</t>
+  </si>
+  <si>
+    <t>Registration and Sign in</t>
   </si>
 </sst>
 </file>
@@ -2324,6 +2327,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2346,61 +2366,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2409,14 +2374,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2955,7 +2958,7 @@
   <dimension ref="A1:AA383"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2978,16 +2981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="100" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="108"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38"/>
@@ -3018,10 +3021,10 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="38"/>
@@ -3052,8 +3055,8 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
@@ -3084,8 +3087,8 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="38"/>
@@ -3225,10 +3228,10 @@
       <c r="A8" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="101" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3268,8 +3271,8 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1">
       <c r="A9" s="87"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -3299,8 +3302,8 @@
       <c r="A10" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="33" t="s">
         <v>124</v>
       </c>
@@ -3338,8 +3341,8 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1">
       <c r="A11" s="87"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -3368,8 +3371,8 @@
       <c r="A12" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="33" t="s">
         <v>125</v>
       </c>
@@ -3406,8 +3409,8 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -3436,8 +3439,8 @@
       <c r="A14" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="33" t="s">
         <v>126</v>
       </c>
@@ -3474,8 +3477,8 @@
     </row>
     <row r="15" spans="1:27" ht="14.4">
       <c r="A15" s="87"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3504,8 +3507,8 @@
       <c r="A16" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="33" t="s">
         <v>127</v>
       </c>
@@ -3546,8 +3549,8 @@
     </row>
     <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="87"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -3576,8 +3579,8 @@
       <c r="A18" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="33" t="s">
         <v>131</v>
       </c>
@@ -3618,8 +3621,8 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="87"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -3648,8 +3651,8 @@
       <c r="A20" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="33" t="s">
         <v>132</v>
       </c>
@@ -3690,8 +3693,8 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="87"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -3720,8 +3723,8 @@
       <c r="A22" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="33" t="s">
         <v>136</v>
       </c>
@@ -3760,8 +3763,8 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="87"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -3790,8 +3793,8 @@
       <c r="A24" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="33" t="s">
         <v>139</v>
       </c>
@@ -3828,8 +3831,8 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="87"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
@@ -3858,8 +3861,8 @@
       <c r="A26" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="33" t="s">
         <v>142</v>
       </c>
@@ -3898,8 +3901,8 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="87"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -3928,8 +3931,8 @@
       <c r="A28" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="33" t="s">
         <v>144</v>
       </c>
@@ -3968,8 +3971,8 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="87"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
@@ -3998,8 +4001,8 @@
       <c r="A30" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="33" t="s">
         <v>145</v>
       </c>
@@ -4038,8 +4041,8 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="87"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -4068,8 +4071,8 @@
       <c r="A32" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="33" t="s">
         <v>147</v>
       </c>
@@ -4108,8 +4111,8 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="87"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -4138,8 +4141,8 @@
       <c r="A34" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="33" t="s">
         <v>150</v>
       </c>
@@ -4178,8 +4181,8 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="87"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -4208,8 +4211,8 @@
       <c r="A36" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="33" t="s">
         <v>152</v>
       </c>
@@ -4246,8 +4249,8 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="87"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
@@ -4276,8 +4279,8 @@
       <c r="A38" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="33" t="s">
         <v>154</v>
       </c>
@@ -4316,8 +4319,8 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="87"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -4346,8 +4349,8 @@
       <c r="A40" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="33" t="s">
         <v>157</v>
       </c>
@@ -4386,8 +4389,8 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="87"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
@@ -4416,8 +4419,8 @@
       <c r="A42" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="33" t="s">
         <v>159</v>
       </c>
@@ -4456,8 +4459,8 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="87"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
@@ -4486,8 +4489,8 @@
       <c r="A44" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="33" t="s">
         <v>161</v>
       </c>
@@ -4526,8 +4529,8 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="87"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
@@ -4556,8 +4559,8 @@
       <c r="A46" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="33" t="s">
         <v>163</v>
       </c>
@@ -4596,8 +4599,8 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="87"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
@@ -4626,8 +4629,8 @@
       <c r="A48" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="33" t="s">
         <v>165</v>
       </c>
@@ -4666,8 +4669,8 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="87"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
@@ -4696,8 +4699,8 @@
       <c r="A50" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="33" t="s">
         <v>171</v>
       </c>
@@ -4736,8 +4739,8 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="87"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
@@ -4766,8 +4769,8 @@
       <c r="A52" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="33" t="s">
         <v>169</v>
       </c>
@@ -4806,8 +4809,8 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="87"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -4836,8 +4839,8 @@
       <c r="A54" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="33" t="s">
         <v>277</v>
       </c>
@@ -4876,8 +4879,8 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="87"/>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
@@ -4906,8 +4909,8 @@
       <c r="A56" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="33" t="s">
         <v>187</v>
       </c>
@@ -4944,8 +4947,8 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="87"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
@@ -4974,8 +4977,8 @@
       <c r="A58" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="33" t="s">
         <v>174</v>
       </c>
@@ -5012,8 +5015,8 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="87"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
@@ -5042,8 +5045,8 @@
       <c r="A60" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
       <c r="D60" s="33" t="s">
         <v>190</v>
       </c>
@@ -5082,8 +5085,8 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="87"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
@@ -5112,8 +5115,8 @@
       <c r="A62" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="33" t="s">
         <v>192</v>
       </c>
@@ -5152,8 +5155,8 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="87"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
@@ -5182,8 +5185,8 @@
       <c r="A64" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
       <c r="D64" s="33" t="s">
         <v>194</v>
       </c>
@@ -5222,8 +5225,8 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="87"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
@@ -5252,8 +5255,8 @@
       <c r="A66" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
       <c r="D66" s="33" t="s">
         <v>196</v>
       </c>
@@ -5292,8 +5295,8 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="87"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
@@ -5322,8 +5325,8 @@
       <c r="A68" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="33" t="s">
         <v>198</v>
       </c>
@@ -5362,8 +5365,8 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="87"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
@@ -5392,8 +5395,8 @@
       <c r="A70" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
       <c r="D70" s="33" t="s">
         <v>177</v>
       </c>
@@ -5432,8 +5435,8 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="87"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="102"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
@@ -5462,8 +5465,8 @@
       <c r="A72" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
       <c r="D72" s="33" t="s">
         <v>355</v>
       </c>
@@ -5502,8 +5505,8 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="87"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
@@ -5532,8 +5535,8 @@
       <c r="A74" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
       <c r="D74" s="33" t="s">
         <v>179</v>
       </c>
@@ -5572,8 +5575,8 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="87"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -5602,8 +5605,8 @@
       <c r="A76" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="33" t="s">
         <v>184</v>
       </c>
@@ -5642,8 +5645,8 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="87"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
@@ -5672,8 +5675,8 @@
       <c r="A78" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="33" t="s">
         <v>201</v>
       </c>
@@ -5712,8 +5715,8 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="87"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
@@ -5742,8 +5745,8 @@
       <c r="A80" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
       <c r="D80" s="33" t="s">
         <v>208</v>
       </c>
@@ -5782,8 +5785,8 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="87"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
@@ -5812,8 +5815,8 @@
       <c r="A82" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="102"/>
       <c r="D82" s="33" t="s">
         <v>209</v>
       </c>
@@ -5852,8 +5855,8 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="87"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
@@ -5882,8 +5885,8 @@
       <c r="A84" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="102"/>
       <c r="D84" s="33" t="s">
         <v>212</v>
       </c>
@@ -5922,8 +5925,8 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="87"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
       <c r="F85" s="33"/>
@@ -5952,8 +5955,8 @@
       <c r="A86" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="102"/>
       <c r="D86" s="33" t="s">
         <v>215</v>
       </c>
@@ -5992,8 +5995,8 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="87"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
@@ -6022,8 +6025,8 @@
       <c r="A88" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="33" t="s">
         <v>218</v>
       </c>
@@ -6062,8 +6065,8 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="87"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="95"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
@@ -6092,8 +6095,8 @@
       <c r="A90" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="95"/>
-      <c r="C90" s="95"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="33" t="s">
         <v>221</v>
       </c>
@@ -6132,8 +6135,8 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="87"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
@@ -6162,8 +6165,8 @@
       <c r="A92" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="95"/>
+      <c r="B92" s="102"/>
+      <c r="C92" s="102"/>
       <c r="D92" s="33" t="s">
         <v>224</v>
       </c>
@@ -6202,8 +6205,8 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="87"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="95"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="102"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
@@ -6232,8 +6235,8 @@
       <c r="A94" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="33" t="s">
         <v>226</v>
       </c>
@@ -6272,8 +6275,8 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="87"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="95"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="102"/>
       <c r="D95" s="33"/>
       <c r="E95" s="33"/>
       <c r="F95" s="33"/>
@@ -6302,8 +6305,8 @@
       <c r="A96" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="33" t="s">
         <v>231</v>
       </c>
@@ -6342,8 +6345,8 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="87"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="102"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
       <c r="F97" s="33"/>
@@ -6372,8 +6375,8 @@
       <c r="A98" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="95"/>
-      <c r="C98" s="95"/>
+      <c r="B98" s="102"/>
+      <c r="C98" s="102"/>
       <c r="D98" s="33" t="s">
         <v>233</v>
       </c>
@@ -6412,8 +6415,8 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="87"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="95"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="102"/>
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
@@ -6442,8 +6445,8 @@
       <c r="A100" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
+      <c r="B100" s="102"/>
+      <c r="C100" s="102"/>
       <c r="D100" s="33" t="s">
         <v>235</v>
       </c>
@@ -6482,8 +6485,8 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="34"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="95"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="102"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
       <c r="F101" s="33"/>
@@ -6512,8 +6515,8 @@
       <c r="A102" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B102" s="95"/>
-      <c r="C102" s="95"/>
+      <c r="B102" s="102"/>
+      <c r="C102" s="102"/>
       <c r="D102" s="33" t="s">
         <v>245</v>
       </c>
@@ -6552,8 +6555,8 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="34"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
+      <c r="B103" s="102"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
       <c r="F103" s="33"/>
@@ -6582,8 +6585,8 @@
       <c r="A104" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="B104" s="95"/>
-      <c r="C104" s="95"/>
+      <c r="B104" s="102"/>
+      <c r="C104" s="102"/>
       <c r="D104" s="33" t="s">
         <v>247</v>
       </c>
@@ -6622,8 +6625,8 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="34"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="95"/>
+      <c r="B105" s="102"/>
+      <c r="C105" s="102"/>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
       <c r="F105" s="33"/>
@@ -6652,8 +6655,8 @@
       <c r="A106" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="102"/>
       <c r="D106" s="33" t="s">
         <v>252</v>
       </c>
@@ -6692,8 +6695,8 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="34"/>
-      <c r="B107" s="95"/>
-      <c r="C107" s="95"/>
+      <c r="B107" s="102"/>
+      <c r="C107" s="102"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
       <c r="F107" s="33"/>
@@ -6722,8 +6725,8 @@
       <c r="A108" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="95"/>
-      <c r="C108" s="95"/>
+      <c r="B108" s="102"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="33" t="s">
         <v>249</v>
       </c>
@@ -6762,8 +6765,8 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="34"/>
-      <c r="B109" s="95"/>
-      <c r="C109" s="95"/>
+      <c r="B109" s="102"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
       <c r="F109" s="33"/>
@@ -6792,8 +6795,8 @@
       <c r="A110" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="95"/>
-      <c r="C110" s="95"/>
+      <c r="B110" s="102"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="33" t="s">
         <v>250</v>
       </c>
@@ -6832,8 +6835,8 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="34"/>
-      <c r="B111" s="95"/>
-      <c r="C111" s="95"/>
+      <c r="B111" s="102"/>
+      <c r="C111" s="102"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
       <c r="F111" s="33"/>
@@ -6862,8 +6865,8 @@
       <c r="A112" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B112" s="95"/>
-      <c r="C112" s="95"/>
+      <c r="B112" s="102"/>
+      <c r="C112" s="102"/>
       <c r="D112" s="33" t="s">
         <v>254</v>
       </c>
@@ -6902,8 +6905,8 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="34"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="95"/>
+      <c r="B113" s="102"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
       <c r="F113" s="33"/>
@@ -6932,8 +6935,8 @@
       <c r="A114" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B114" s="95"/>
-      <c r="C114" s="95"/>
+      <c r="B114" s="102"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="33" t="s">
         <v>280</v>
       </c>
@@ -6972,8 +6975,8 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="34"/>
-      <c r="B115" s="95"/>
-      <c r="C115" s="95"/>
+      <c r="B115" s="102"/>
+      <c r="C115" s="102"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
@@ -7002,8 +7005,8 @@
       <c r="A116" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B116" s="95"/>
-      <c r="C116" s="95"/>
+      <c r="B116" s="102"/>
+      <c r="C116" s="102"/>
       <c r="D116" s="33" t="s">
         <v>271</v>
       </c>
@@ -7042,8 +7045,8 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="34"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
+      <c r="B117" s="102"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
       <c r="F117" s="33"/>
@@ -7072,8 +7075,8 @@
       <c r="A118" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B118" s="95"/>
-      <c r="C118" s="95"/>
+      <c r="B118" s="102"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="33" t="s">
         <v>274</v>
       </c>
@@ -7112,8 +7115,8 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="34"/>
-      <c r="B119" s="95"/>
-      <c r="C119" s="95"/>
+      <c r="B119" s="102"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
@@ -7142,8 +7145,8 @@
       <c r="A120" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="95"/>
-      <c r="C120" s="95"/>
+      <c r="B120" s="102"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="53" t="s">
         <v>356</v>
       </c>
@@ -7182,8 +7185,8 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="34"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
+      <c r="B121" s="102"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
@@ -7212,8 +7215,8 @@
       <c r="A122" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="B122" s="95"/>
-      <c r="C122" s="95"/>
+      <c r="B122" s="102"/>
+      <c r="C122" s="102"/>
       <c r="D122" s="53" t="s">
         <v>359</v>
       </c>
@@ -7252,8 +7255,8 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="34"/>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
+      <c r="B123" s="102"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="53"/>
       <c r="E123" s="33"/>
       <c r="F123" s="33"/>
@@ -7282,8 +7285,8 @@
       <c r="A124" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B124" s="95"/>
-      <c r="C124" s="96"/>
+      <c r="B124" s="102"/>
+      <c r="C124" s="103"/>
       <c r="D124" s="53" t="s">
         <v>372</v>
       </c>
@@ -7320,7 +7323,7 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="34"/>
-      <c r="B125" s="95"/>
+      <c r="B125" s="102"/>
       <c r="C125" s="93"/>
       <c r="D125" s="53"/>
       <c r="E125" s="33"/>
@@ -7350,8 +7353,8 @@
       <c r="A126" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B126" s="95"/>
-      <c r="C126" s="94" t="s">
+      <c r="B126" s="102"/>
+      <c r="C126" s="101" t="s">
         <v>281</v>
       </c>
       <c r="D126" s="33" t="s">
@@ -7392,8 +7395,8 @@
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="34"/>
-      <c r="B127" s="95"/>
-      <c r="C127" s="95"/>
+      <c r="B127" s="102"/>
+      <c r="C127" s="102"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
@@ -7422,8 +7425,8 @@
       <c r="A128" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B128" s="95"/>
-      <c r="C128" s="95"/>
+      <c r="B128" s="102"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="33" t="s">
         <v>296</v>
       </c>
@@ -7462,8 +7465,8 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="34"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="95"/>
+      <c r="B129" s="102"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
       <c r="F129" s="33"/>
@@ -7492,8 +7495,8 @@
       <c r="A130" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B130" s="95"/>
-      <c r="C130" s="95"/>
+      <c r="B130" s="102"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="33" t="s">
         <v>282</v>
       </c>
@@ -7532,8 +7535,8 @@
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="34"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="95"/>
+      <c r="B131" s="102"/>
+      <c r="C131" s="102"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
       <c r="F131" s="33"/>
@@ -7562,8 +7565,8 @@
       <c r="A132" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B132" s="95"/>
-      <c r="C132" s="95"/>
+      <c r="B132" s="102"/>
+      <c r="C132" s="102"/>
       <c r="D132" s="33" t="s">
         <v>283</v>
       </c>
@@ -7602,8 +7605,8 @@
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="34"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="95"/>
+      <c r="B133" s="102"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
       <c r="F133" s="33"/>
@@ -7632,8 +7635,8 @@
       <c r="A134" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B134" s="95"/>
-      <c r="C134" s="95"/>
+      <c r="B134" s="102"/>
+      <c r="C134" s="102"/>
       <c r="D134" s="33" t="s">
         <v>298</v>
       </c>
@@ -7672,8 +7675,8 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="34"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
+      <c r="B135" s="102"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
@@ -7702,8 +7705,8 @@
       <c r="A136" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B136" s="95"/>
-      <c r="C136" s="95"/>
+      <c r="B136" s="102"/>
+      <c r="C136" s="102"/>
       <c r="D136" s="33" t="s">
         <v>312</v>
       </c>
@@ -7742,8 +7745,8 @@
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="34"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="95"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="102"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
@@ -7772,8 +7775,8 @@
       <c r="A138" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="B138" s="95"/>
-      <c r="C138" s="95"/>
+      <c r="B138" s="102"/>
+      <c r="C138" s="102"/>
       <c r="D138" s="33" t="s">
         <v>347</v>
       </c>
@@ -7812,8 +7815,8 @@
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="34"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="95"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="102"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
@@ -7842,8 +7845,8 @@
       <c r="A140" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B140" s="95"/>
-      <c r="C140" s="95"/>
+      <c r="B140" s="102"/>
+      <c r="C140" s="102"/>
       <c r="D140" s="33" t="s">
         <v>304</v>
       </c>
@@ -7882,8 +7885,8 @@
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="34"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="95"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="102"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
@@ -7912,8 +7915,8 @@
       <c r="A142" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="B142" s="95"/>
-      <c r="C142" s="95"/>
+      <c r="B142" s="102"/>
+      <c r="C142" s="102"/>
       <c r="D142" s="33" t="s">
         <v>305</v>
       </c>
@@ -7952,8 +7955,8 @@
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="34"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="95"/>
+      <c r="B143" s="102"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
       <c r="F143" s="33"/>
@@ -7982,8 +7985,8 @@
       <c r="A144" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="B144" s="95"/>
-      <c r="C144" s="95"/>
+      <c r="B144" s="102"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="33" t="s">
         <v>306</v>
       </c>
@@ -8022,8 +8025,8 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1">
       <c r="A145" s="34"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="95"/>
+      <c r="B145" s="102"/>
+      <c r="C145" s="102"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
       <c r="F145" s="33"/>
@@ -8052,8 +8055,8 @@
       <c r="A146" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="B146" s="95"/>
-      <c r="C146" s="95"/>
+      <c r="B146" s="102"/>
+      <c r="C146" s="102"/>
       <c r="D146" s="33" t="s">
         <v>310</v>
       </c>
@@ -8092,8 +8095,8 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1">
       <c r="A147" s="34"/>
-      <c r="B147" s="95"/>
-      <c r="C147" s="95"/>
+      <c r="B147" s="102"/>
+      <c r="C147" s="102"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
       <c r="F147" s="33"/>
@@ -8122,8 +8125,8 @@
       <c r="A148" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B148" s="95"/>
-      <c r="C148" s="95"/>
+      <c r="B148" s="102"/>
+      <c r="C148" s="102"/>
       <c r="D148" s="33" t="s">
         <v>314</v>
       </c>
@@ -8162,8 +8165,8 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1">
       <c r="A149" s="34"/>
-      <c r="B149" s="95"/>
-      <c r="C149" s="95"/>
+      <c r="B149" s="102"/>
+      <c r="C149" s="102"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33"/>
       <c r="F149" s="33"/>
@@ -8192,8 +8195,8 @@
       <c r="A150" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B150" s="95"/>
-      <c r="C150" s="95"/>
+      <c r="B150" s="102"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="33" t="s">
         <v>317</v>
       </c>
@@ -8232,8 +8235,8 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1">
       <c r="A151" s="34"/>
-      <c r="B151" s="95"/>
-      <c r="C151" s="95"/>
+      <c r="B151" s="102"/>
+      <c r="C151" s="102"/>
       <c r="D151" s="33"/>
       <c r="E151" s="33"/>
       <c r="F151" s="33"/>
@@ -8262,8 +8265,8 @@
       <c r="A152" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="B152" s="95"/>
-      <c r="C152" s="95"/>
+      <c r="B152" s="102"/>
+      <c r="C152" s="102"/>
       <c r="D152" s="33" t="s">
         <v>331</v>
       </c>
@@ -8302,8 +8305,8 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1">
       <c r="A153" s="34"/>
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
+      <c r="B153" s="102"/>
+      <c r="C153" s="102"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33"/>
       <c r="F153" s="33"/>
@@ -8332,8 +8335,8 @@
       <c r="A154" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="B154" s="95"/>
-      <c r="C154" s="95"/>
+      <c r="B154" s="102"/>
+      <c r="C154" s="102"/>
       <c r="D154" s="33" t="s">
         <v>355</v>
       </c>
@@ -8372,8 +8375,8 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1">
       <c r="A155" s="34"/>
-      <c r="B155" s="95"/>
-      <c r="C155" s="95"/>
+      <c r="B155" s="102"/>
+      <c r="C155" s="102"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33"/>
       <c r="F155" s="33"/>
@@ -8402,8 +8405,8 @@
       <c r="A156" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="B156" s="95"/>
-      <c r="C156" s="95"/>
+      <c r="B156" s="102"/>
+      <c r="C156" s="102"/>
       <c r="D156" s="33" t="s">
         <v>328</v>
       </c>
@@ -8443,8 +8446,8 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1">
       <c r="A157" s="34"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="95"/>
+      <c r="B157" s="102"/>
+      <c r="C157" s="102"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33"/>
       <c r="F157" s="33"/>
@@ -8474,8 +8477,8 @@
       <c r="A158" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B158" s="95"/>
-      <c r="C158" s="95"/>
+      <c r="B158" s="102"/>
+      <c r="C158" s="102"/>
       <c r="D158" s="33" t="s">
         <v>335</v>
       </c>
@@ -8515,8 +8518,8 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1">
       <c r="A159" s="34"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="95"/>
+      <c r="B159" s="102"/>
+      <c r="C159" s="102"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33"/>
       <c r="F159" s="33"/>
@@ -8546,8 +8549,8 @@
       <c r="A160" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="B160" s="95"/>
-      <c r="C160" s="95"/>
+      <c r="B160" s="102"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="33" t="s">
         <v>338</v>
       </c>
@@ -8587,8 +8590,8 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1">
       <c r="A161" s="34"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="95"/>
+      <c r="B161" s="102"/>
+      <c r="C161" s="102"/>
       <c r="D161" s="33"/>
       <c r="E161" s="33"/>
       <c r="F161" s="33"/>
@@ -8618,8 +8621,8 @@
       <c r="A162" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="B162" s="95"/>
-      <c r="C162" s="95"/>
+      <c r="B162" s="102"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="33" t="s">
         <v>341</v>
       </c>
@@ -8661,8 +8664,8 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1">
       <c r="A163" s="34"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="95"/>
+      <c r="B163" s="102"/>
+      <c r="C163" s="102"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33"/>
       <c r="F163" s="33"/>
@@ -8692,8 +8695,8 @@
       <c r="A164" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="B164" s="95"/>
-      <c r="C164" s="95"/>
+      <c r="B164" s="102"/>
+      <c r="C164" s="102"/>
       <c r="D164" s="33" t="s">
         <v>344</v>
       </c>
@@ -8733,8 +8736,8 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1">
       <c r="A165" s="34"/>
-      <c r="B165" s="95"/>
-      <c r="C165" s="95"/>
+      <c r="B165" s="102"/>
+      <c r="C165" s="102"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33"/>
       <c r="F165" s="33"/>
@@ -8764,8 +8767,8 @@
       <c r="A166" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="B166" s="96"/>
-      <c r="C166" s="96"/>
+      <c r="B166" s="103"/>
+      <c r="C166" s="103"/>
       <c r="D166" s="53" t="s">
         <v>356</v>
       </c>
@@ -8944,7 +8947,7 @@
       <c r="H171" s="33"/>
       <c r="I171" s="34"/>
       <c r="J171" s="50"/>
-      <c r="K171" s="99"/>
+      <c r="K171" s="106"/>
       <c r="L171" s="40"/>
       <c r="M171" s="40"/>
       <c r="N171" s="40"/>
@@ -8973,7 +8976,7 @@
       <c r="H172" s="33"/>
       <c r="I172" s="34"/>
       <c r="J172" s="50"/>
-      <c r="K172" s="100"/>
+      <c r="K172" s="107"/>
       <c r="L172" s="40"/>
       <c r="M172" s="40"/>
       <c r="N172" s="40"/>
@@ -9002,7 +9005,7 @@
       <c r="H173" s="33"/>
       <c r="I173" s="34"/>
       <c r="J173" s="50"/>
-      <c r="K173" s="100"/>
+      <c r="K173" s="107"/>
       <c r="L173" s="40"/>
       <c r="M173" s="40"/>
       <c r="N173" s="40"/>
@@ -9031,7 +9034,7 @@
       <c r="H174" s="33"/>
       <c r="I174" s="34"/>
       <c r="J174" s="50"/>
-      <c r="K174" s="100"/>
+      <c r="K174" s="107"/>
       <c r="L174" s="40"/>
       <c r="M174" s="40"/>
       <c r="N174" s="40"/>
@@ -9060,7 +9063,7 @@
       <c r="H175" s="33"/>
       <c r="I175" s="34"/>
       <c r="J175" s="50"/>
-      <c r="K175" s="100"/>
+      <c r="K175" s="107"/>
       <c r="L175" s="40"/>
       <c r="M175" s="40"/>
       <c r="N175" s="40"/>
@@ -9089,7 +9092,7 @@
       <c r="H176" s="33"/>
       <c r="I176" s="34"/>
       <c r="J176" s="50"/>
-      <c r="K176" s="100"/>
+      <c r="K176" s="107"/>
       <c r="L176" s="40"/>
       <c r="M176" s="40"/>
       <c r="N176" s="40"/>
@@ -9118,7 +9121,7 @@
       <c r="H177" s="33"/>
       <c r="I177" s="34"/>
       <c r="J177" s="50"/>
-      <c r="K177" s="100"/>
+      <c r="K177" s="107"/>
       <c r="L177" s="40"/>
       <c r="M177" s="40"/>
       <c r="N177" s="40"/>
@@ -9147,7 +9150,7 @@
       <c r="H178" s="33"/>
       <c r="I178" s="34"/>
       <c r="J178" s="50"/>
-      <c r="K178" s="101"/>
+      <c r="K178" s="108"/>
       <c r="L178" s="40"/>
       <c r="M178" s="40"/>
       <c r="N178" s="40"/>
@@ -10769,8 +10772,8 @@
       <c r="F234" s="33"/>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
-      <c r="I234" s="102"/>
-      <c r="J234" s="106"/>
+      <c r="I234" s="96"/>
+      <c r="J234" s="97"/>
       <c r="K234" s="65"/>
       <c r="L234" s="40"/>
       <c r="M234" s="40"/>
@@ -10798,8 +10801,8 @@
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
-      <c r="I235" s="103"/>
-      <c r="J235" s="103"/>
+      <c r="I235" s="98"/>
+      <c r="J235" s="98"/>
       <c r="K235" s="65"/>
       <c r="L235" s="40"/>
       <c r="M235" s="40"/>
@@ -10827,8 +10830,8 @@
       <c r="F236" s="33"/>
       <c r="G236" s="33"/>
       <c r="H236" s="33"/>
-      <c r="I236" s="104"/>
-      <c r="J236" s="104"/>
+      <c r="I236" s="95"/>
+      <c r="J236" s="95"/>
       <c r="K236" s="65"/>
       <c r="L236" s="40"/>
       <c r="M236" s="40"/>
@@ -11784,7 +11787,7 @@
       <c r="F269" s="33"/>
       <c r="G269" s="33"/>
       <c r="H269" s="33"/>
-      <c r="I269" s="105"/>
+      <c r="I269" s="94"/>
       <c r="J269" s="50"/>
       <c r="K269" s="72"/>
       <c r="L269" s="40"/>
@@ -11813,7 +11816,7 @@
       <c r="F270" s="33"/>
       <c r="G270" s="33"/>
       <c r="H270" s="33"/>
-      <c r="I270" s="104"/>
+      <c r="I270" s="95"/>
       <c r="J270" s="50"/>
       <c r="K270" s="72"/>
       <c r="L270" s="40"/>
@@ -11900,7 +11903,7 @@
       <c r="F273" s="33"/>
       <c r="G273" s="33"/>
       <c r="H273" s="33"/>
-      <c r="I273" s="102"/>
+      <c r="I273" s="96"/>
       <c r="J273" s="50"/>
       <c r="K273" s="72"/>
       <c r="L273" s="40"/>
@@ -11929,7 +11932,7 @@
       <c r="F274" s="33"/>
       <c r="G274" s="33"/>
       <c r="H274" s="33"/>
-      <c r="I274" s="104"/>
+      <c r="I274" s="95"/>
       <c r="J274" s="50"/>
       <c r="K274" s="72"/>
       <c r="L274" s="40"/>
@@ -15112,17 +15115,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I269:I270"/>
-    <mergeCell ref="I273:I274"/>
-    <mergeCell ref="J234:J236"/>
-    <mergeCell ref="E2:F4"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="C126:C166"/>
     <mergeCell ref="B8:B166"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K171:K178"/>
     <mergeCell ref="I234:I236"/>
     <mergeCell ref="C8:C124"/>
+    <mergeCell ref="I269:I270"/>
+    <mergeCell ref="I273:I274"/>
+    <mergeCell ref="J234:J236"/>
+    <mergeCell ref="E2:F4"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="I217:I222 I224:I225 I262 I276:I285 I11:I119 I121:I157 J8:J383">
@@ -15195,8 +15198,8 @@
   </sheetPr>
   <dimension ref="A1:Z251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -15218,39 +15221,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
+      <c r="C6" s="129" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
       <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
@@ -15265,13 +15268,13 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>2</v>
@@ -15286,13 +15289,13 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="129" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>7</v>
@@ -15307,13 +15310,13 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="129" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -15337,13 +15340,13 @@
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -15362,22 +15365,22 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="137"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -15512,21 +15515,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>34</v>
@@ -15536,11 +15539,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>37</v>
@@ -15550,11 +15553,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>37</v>
@@ -15565,306 +15568,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="139"/>
-      <c r="C23" s="137" t="s">
+      <c r="B23" s="122"/>
+      <c r="C23" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="138" t="s">
+      <c r="D23" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="133"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="136"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="114"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="117"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="131" t="s">
+      <c r="D27" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="133"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="111"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="136"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="117"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="133"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="117"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="126" t="s">
+      <c r="B35" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="129" t="s">
+      <c r="C35" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="131" t="s">
+      <c r="D35" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="133"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="111"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="114"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="114"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="131" t="s">
+      <c r="D39" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="133"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="114"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="114"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="120"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="117"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="126" t="s">
+      <c r="B43" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="111"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="114"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="114"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="117"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="126" t="s">
+      <c r="B47" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="130" t="s">
+      <c r="C47" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="133"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="111"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="114"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="114"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="120"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="117"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="126" t="s">
+      <c r="B51" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="130" t="s">
+      <c r="C51" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="131" t="s">
+      <c r="D51" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="133"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="114"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="114"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="128"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="120"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="117"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -16065,15 +16068,18 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="C47:C50"/>
@@ -16089,18 +16095,15 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
